--- a/Anteproyectos2021/Actas_Asesorias/BD_Actas_Asesorias.xlsx
+++ b/Anteproyectos2021/Actas_Asesorias/BD_Actas_Asesorias.xlsx
@@ -9,17 +9,19 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
-    <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
+    <sheet name="Inicio" sheetId="6" r:id="rId1"/>
+    <sheet name="Formato_Acta" sheetId="2" r:id="rId2"/>
+    <sheet name="BD_Driver" sheetId="1" r:id="rId3"/>
+    <sheet name="BD_COD" sheetId="5" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">Hoja2!$A$1:$K$56</definedName>
-    <definedName name="pub?output_tsv" localSheetId="0">Hoja1!#REF!</definedName>
-    <definedName name="pub?output_tsv_1" localSheetId="0">Hoja1!#REF!</definedName>
-    <definedName name="pub?output_tsv_2" localSheetId="0">Hoja1!$A$1:$H$5</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">Formato_Acta!$A$1:$K$56</definedName>
+    <definedName name="pub?output_tsv" localSheetId="2">BD_Driver!#REF!</definedName>
+    <definedName name="pub?output_tsv_1" localSheetId="2">BD_Driver!#REF!</definedName>
+    <definedName name="pub?output_tsv_2" localSheetId="2">BD_Driver!$A$1:$H$2</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -50,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="20">
   <si>
     <t>Marca temporal</t>
   </si>
@@ -91,18 +93,6 @@
     <t xml:space="preserve">1. Marco teórico, contextual, conceptual, legal y antecedentes. 2. Bibliografías. 3. Buscar a director de tesis. 4. Definir cómo se va a trabajar con APROI. 5. Conseguir la IEC 61741 6. Construir el entregable para el taller 3. </t>
   </si>
   <si>
-    <t>x</t>
-  </si>
-  <si>
-    <t>Cristhian Torres.</t>
-  </si>
-  <si>
-    <t>e</t>
-  </si>
-  <si>
-    <t>r</t>
-  </si>
-  <si>
     <t xml:space="preserve">1. Se debe revisar el primer objetivo específico, se deben definir los indicadores que se van a utilizar para desarrollar el análisis termográfica. 2. Se deben limitar cuantos patrones se van a mapear en la base de datos. Segundo objetivo específico. 3. Se debe redactar 1 o 2 objetivos que definan: o Como se debe transformar una imagen termografica para trabajar por patrones de figuras. o Como relacionar los patrones de figuras con anomalías en los panales solares para alimentar la base de datos. 4. Poner en el marco legal a RETIE. 5. Antecedentes que integre las 3 categorías: sistemas fv, inspecciones termográficas y procesamiento de imágenes. 6. El marco contextual se debe ubicar en Colombia y sistemas fv. </t>
   </si>
   <si>
@@ -116,6 +106,12 @@
   </si>
   <si>
     <t>1. El titulo está bien. 2. El objetivo general está bien. 3. El último objetivo específico está bien. 4. El objetivo especifico 2 está bien.</t>
+  </si>
+  <si>
+    <t>#001-2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Se debe revisar el primer objetivo específico, se deben definir los indicadores que se van a utilizar para desarrollar el análisis termográfica. 2. Se deben limitar cuantos patrones se van a mapear en la base de datos. Segundo objetivo específico. 3. Se debe redactar 1 o 2 objetivos que definan: o Como se debe transformar una imagen termografica para trabajar por patrones de figuras. o Como relacionar los patrones de figuras con anomalías en los panales solares para alimentar la base de datos. 4. Poner en el marco legal a RETIE. 5. Antecedentes que integre las 3 categorías: sistemas fv, inspecciones termográficas y procesamiento de imágenes. 6. El marco contextual se debe ubicar en Colombia y sistemas SD. </t>
   </si>
 </sst>
 </file>
@@ -123,7 +119,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+    <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -311,12 +307,6 @@
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -329,50 +319,68 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -385,18 +393,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -725,156 +721,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="28" customWidth="1"/>
-    <col min="4" max="4" width="31.85546875" customWidth="1"/>
-    <col min="5" max="5" width="14.140625" customWidth="1"/>
-    <col min="6" max="7" width="81.140625" customWidth="1"/>
-    <col min="8" max="10" width="81.140625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="219" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="1">
-        <v>44292.611504629633</v>
-      </c>
-      <c r="B2" s="2">
-        <v>44292</v>
-      </c>
-      <c r="C2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="H2" s="7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>44292.822581018518</v>
-      </c>
-      <c r="B3" s="2">
-        <v>44292</v>
-      </c>
-      <c r="C3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>44292.854930555557</v>
-      </c>
-      <c r="B4" s="2">
-        <v>44291</v>
-      </c>
-      <c r="C4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F4" t="s">
-        <v>15</v>
-      </c>
-      <c r="G4" t="s">
-        <v>15</v>
-      </c>
-      <c r="H4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
-        <v>44293.829050925924</v>
-      </c>
-      <c r="B5" s="2">
-        <v>44293</v>
-      </c>
-      <c r="C5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" t="s">
-        <v>16</v>
-      </c>
-      <c r="E5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F5" t="s">
-        <v>16</v>
-      </c>
-      <c r="G5" t="s">
-        <v>16</v>
-      </c>
-      <c r="H5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -882,8 +735,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:J51"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L26" sqref="L26"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14:J25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -898,576 +751,575 @@
   <sheetData>
     <row r="1" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="8"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="33" t="s">
-        <v>20</v>
-      </c>
-      <c r="E2" s="33"/>
-      <c r="F2" s="33"/>
-      <c r="G2" s="33"/>
-      <c r="H2" s="33"/>
-      <c r="I2" s="33"/>
-      <c r="J2" s="34"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="29"/>
+      <c r="F2" s="29"/>
+      <c r="G2" s="29"/>
+      <c r="H2" s="29"/>
+      <c r="I2" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2" s="30"/>
     </row>
     <row r="3" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="10"/>
-      <c r="C3" s="11"/>
-      <c r="D3" s="35"/>
-      <c r="E3" s="35"/>
-      <c r="F3" s="35"/>
-      <c r="G3" s="35"/>
-      <c r="H3" s="35"/>
-      <c r="I3" s="35"/>
-      <c r="J3" s="36"/>
+      <c r="B3" s="8"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="31"/>
+      <c r="E3" s="31"/>
+      <c r="F3" s="31"/>
+      <c r="G3" s="31"/>
+      <c r="H3" s="31"/>
+      <c r="I3" s="31"/>
+      <c r="J3" s="32"/>
     </row>
     <row r="4" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="10"/>
-      <c r="C4" s="11"/>
-      <c r="D4" s="29" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4" s="29"/>
-      <c r="F4" s="29"/>
-      <c r="G4" s="29"/>
-      <c r="H4" s="29"/>
-      <c r="I4" s="29"/>
-      <c r="J4" s="30"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="33" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="33"/>
+      <c r="F4" s="33"/>
+      <c r="G4" s="33"/>
+      <c r="H4" s="33"/>
+      <c r="I4" s="33"/>
+      <c r="J4" s="34"/>
     </row>
     <row r="5" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="10"/>
-      <c r="C5" s="11"/>
-      <c r="D5" s="29"/>
-      <c r="E5" s="29"/>
-      <c r="F5" s="29"/>
-      <c r="G5" s="29"/>
-      <c r="H5" s="29"/>
-      <c r="I5" s="29"/>
-      <c r="J5" s="30"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="33"/>
+      <c r="E5" s="33"/>
+      <c r="F5" s="33"/>
+      <c r="G5" s="33"/>
+      <c r="H5" s="33"/>
+      <c r="I5" s="33"/>
+      <c r="J5" s="34"/>
     </row>
     <row r="6" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="10"/>
-      <c r="C6" s="11"/>
-      <c r="D6" s="29"/>
-      <c r="E6" s="29"/>
-      <c r="F6" s="29"/>
-      <c r="G6" s="29"/>
-      <c r="H6" s="29"/>
-      <c r="I6" s="29"/>
-      <c r="J6" s="30"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="33"/>
+      <c r="E6" s="33"/>
+      <c r="F6" s="33"/>
+      <c r="G6" s="33"/>
+      <c r="H6" s="33"/>
+      <c r="I6" s="33"/>
+      <c r="J6" s="34"/>
     </row>
     <row r="7" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="10"/>
-      <c r="C7" s="11"/>
-      <c r="D7" s="29"/>
-      <c r="E7" s="29"/>
-      <c r="F7" s="29"/>
-      <c r="G7" s="29"/>
-      <c r="H7" s="29"/>
-      <c r="I7" s="29"/>
-      <c r="J7" s="30"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="33"/>
+      <c r="E7" s="33"/>
+      <c r="F7" s="33"/>
+      <c r="G7" s="33"/>
+      <c r="H7" s="33"/>
+      <c r="I7" s="33"/>
+      <c r="J7" s="34"/>
     </row>
     <row r="8" spans="2:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="12"/>
-      <c r="C8" s="13"/>
-      <c r="D8" s="31"/>
-      <c r="E8" s="31"/>
-      <c r="F8" s="31"/>
-      <c r="G8" s="31"/>
-      <c r="H8" s="31"/>
-      <c r="I8" s="31"/>
-      <c r="J8" s="32"/>
+      <c r="B8" s="10"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="35"/>
+      <c r="E8" s="35"/>
+      <c r="F8" s="35"/>
+      <c r="G8" s="35"/>
+      <c r="H8" s="35"/>
+      <c r="I8" s="35"/>
+      <c r="J8" s="36"/>
     </row>
     <row r="9" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="C9" s="15"/>
-      <c r="D9" s="15"/>
-      <c r="E9" s="15"/>
-      <c r="G9" s="15" t="s">
+      <c r="B9" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="25"/>
+      <c r="D9" s="25"/>
+      <c r="E9" s="25"/>
+      <c r="G9" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="H9" s="15"/>
-      <c r="I9" s="15"/>
-      <c r="J9" s="15"/>
+      <c r="H9" s="25"/>
+      <c r="I9" s="25"/>
+      <c r="J9" s="25"/>
     </row>
     <row r="10" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="17">
+      <c r="B10" s="26">
         <v>44292</v>
       </c>
-      <c r="C10" s="18"/>
-      <c r="D10" s="18"/>
-      <c r="E10" s="19"/>
-      <c r="G10" s="4" t="s">
+      <c r="C10" s="27"/>
+      <c r="D10" s="27"/>
+      <c r="E10" s="28"/>
+      <c r="G10" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="H10" s="14"/>
-      <c r="I10" s="14"/>
-      <c r="J10" s="5"/>
+      <c r="H10" s="23"/>
+      <c r="I10" s="23"/>
+      <c r="J10" s="24"/>
     </row>
     <row r="11" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="15" t="s">
+      <c r="B11" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="C11" s="15"/>
-      <c r="D11" s="15"/>
-      <c r="E11" s="15"/>
-      <c r="G11" s="15" t="s">
+      <c r="C11" s="25"/>
+      <c r="D11" s="25"/>
+      <c r="E11" s="25"/>
+      <c r="G11" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="H11" s="15"/>
-      <c r="I11" s="15"/>
-      <c r="J11" s="15"/>
+      <c r="H11" s="25"/>
+      <c r="I11" s="25"/>
+      <c r="J11" s="25"/>
     </row>
     <row r="12" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="C12" s="14"/>
-      <c r="D12" s="14"/>
-      <c r="E12" s="5"/>
-      <c r="G12" s="4" t="s">
+      <c r="C12" s="23"/>
+      <c r="D12" s="23"/>
+      <c r="E12" s="24"/>
+      <c r="G12" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="H12" s="14"/>
-      <c r="I12" s="14"/>
-      <c r="J12" s="5"/>
+      <c r="H12" s="23"/>
+      <c r="I12" s="23"/>
+      <c r="J12" s="24"/>
     </row>
     <row r="13" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="16" t="s">
+      <c r="B13" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="C13" s="16"/>
-      <c r="D13" s="16"/>
-      <c r="E13" s="16"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="12"/>
     </row>
     <row r="14" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B14" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="C14" s="21"/>
-      <c r="D14" s="21"/>
-      <c r="E14" s="21"/>
-      <c r="F14" s="21"/>
-      <c r="G14" s="21"/>
-      <c r="H14" s="21"/>
-      <c r="I14" s="21"/>
-      <c r="J14" s="22"/>
+      <c r="B14" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" s="14"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="14"/>
+      <c r="G14" s="14"/>
+      <c r="H14" s="14"/>
+      <c r="I14" s="14"/>
+      <c r="J14" s="15"/>
     </row>
     <row r="15" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B15" s="23"/>
-      <c r="C15" s="24"/>
-      <c r="D15" s="24"/>
-      <c r="E15" s="24"/>
-      <c r="F15" s="24"/>
-      <c r="G15" s="24"/>
-      <c r="H15" s="24"/>
-      <c r="I15" s="24"/>
-      <c r="J15" s="25"/>
+      <c r="B15" s="16"/>
+      <c r="C15" s="17"/>
+      <c r="D15" s="17"/>
+      <c r="E15" s="17"/>
+      <c r="F15" s="17"/>
+      <c r="G15" s="17"/>
+      <c r="H15" s="17"/>
+      <c r="I15" s="17"/>
+      <c r="J15" s="18"/>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B16" s="23"/>
-      <c r="C16" s="24"/>
-      <c r="D16" s="24"/>
-      <c r="E16" s="24"/>
-      <c r="F16" s="24"/>
-      <c r="G16" s="24"/>
-      <c r="H16" s="24"/>
-      <c r="I16" s="24"/>
-      <c r="J16" s="25"/>
+      <c r="B16" s="16"/>
+      <c r="C16" s="17"/>
+      <c r="D16" s="17"/>
+      <c r="E16" s="17"/>
+      <c r="F16" s="17"/>
+      <c r="G16" s="17"/>
+      <c r="H16" s="17"/>
+      <c r="I16" s="17"/>
+      <c r="J16" s="18"/>
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B17" s="23"/>
-      <c r="C17" s="24"/>
-      <c r="D17" s="24"/>
-      <c r="E17" s="24"/>
-      <c r="F17" s="24"/>
-      <c r="G17" s="24"/>
-      <c r="H17" s="24"/>
-      <c r="I17" s="24"/>
-      <c r="J17" s="25"/>
+      <c r="B17" s="16"/>
+      <c r="C17" s="17"/>
+      <c r="D17" s="17"/>
+      <c r="E17" s="17"/>
+      <c r="F17" s="17"/>
+      <c r="G17" s="17"/>
+      <c r="H17" s="17"/>
+      <c r="I17" s="17"/>
+      <c r="J17" s="18"/>
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B18" s="23"/>
-      <c r="C18" s="24"/>
-      <c r="D18" s="24"/>
-      <c r="E18" s="24"/>
-      <c r="F18" s="24"/>
-      <c r="G18" s="24"/>
-      <c r="H18" s="24"/>
-      <c r="I18" s="24"/>
-      <c r="J18" s="25"/>
+      <c r="B18" s="16"/>
+      <c r="C18" s="17"/>
+      <c r="D18" s="17"/>
+      <c r="E18" s="17"/>
+      <c r="F18" s="17"/>
+      <c r="G18" s="17"/>
+      <c r="H18" s="17"/>
+      <c r="I18" s="17"/>
+      <c r="J18" s="18"/>
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B19" s="23"/>
-      <c r="C19" s="24"/>
-      <c r="D19" s="24"/>
-      <c r="E19" s="24"/>
-      <c r="F19" s="24"/>
-      <c r="G19" s="24"/>
-      <c r="H19" s="24"/>
-      <c r="I19" s="24"/>
-      <c r="J19" s="25"/>
+      <c r="B19" s="16"/>
+      <c r="C19" s="17"/>
+      <c r="D19" s="17"/>
+      <c r="E19" s="17"/>
+      <c r="F19" s="17"/>
+      <c r="G19" s="17"/>
+      <c r="H19" s="17"/>
+      <c r="I19" s="17"/>
+      <c r="J19" s="18"/>
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B20" s="23"/>
-      <c r="C20" s="24"/>
-      <c r="D20" s="24"/>
-      <c r="E20" s="24"/>
-      <c r="F20" s="24"/>
-      <c r="G20" s="24"/>
-      <c r="H20" s="24"/>
-      <c r="I20" s="24"/>
-      <c r="J20" s="25"/>
+      <c r="B20" s="16"/>
+      <c r="C20" s="17"/>
+      <c r="D20" s="17"/>
+      <c r="E20" s="17"/>
+      <c r="F20" s="17"/>
+      <c r="G20" s="17"/>
+      <c r="H20" s="17"/>
+      <c r="I20" s="17"/>
+      <c r="J20" s="18"/>
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B21" s="23"/>
-      <c r="C21" s="24"/>
-      <c r="D21" s="24"/>
-      <c r="E21" s="24"/>
-      <c r="F21" s="24"/>
-      <c r="G21" s="24"/>
-      <c r="H21" s="24"/>
-      <c r="I21" s="24"/>
-      <c r="J21" s="25"/>
+      <c r="B21" s="16"/>
+      <c r="C21" s="17"/>
+      <c r="D21" s="17"/>
+      <c r="E21" s="17"/>
+      <c r="F21" s="17"/>
+      <c r="G21" s="17"/>
+      <c r="H21" s="17"/>
+      <c r="I21" s="17"/>
+      <c r="J21" s="18"/>
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B22" s="23"/>
-      <c r="C22" s="24"/>
-      <c r="D22" s="24"/>
-      <c r="E22" s="24"/>
-      <c r="F22" s="24"/>
-      <c r="G22" s="24"/>
-      <c r="H22" s="24"/>
-      <c r="I22" s="24"/>
-      <c r="J22" s="25"/>
+      <c r="B22" s="16"/>
+      <c r="C22" s="17"/>
+      <c r="D22" s="17"/>
+      <c r="E22" s="17"/>
+      <c r="F22" s="17"/>
+      <c r="G22" s="17"/>
+      <c r="H22" s="17"/>
+      <c r="I22" s="17"/>
+      <c r="J22" s="18"/>
     </row>
     <row r="23" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B23" s="23"/>
-      <c r="C23" s="24"/>
-      <c r="D23" s="24"/>
-      <c r="E23" s="24"/>
-      <c r="F23" s="24"/>
-      <c r="G23" s="24"/>
-      <c r="H23" s="24"/>
-      <c r="I23" s="24"/>
-      <c r="J23" s="25"/>
+      <c r="B23" s="16"/>
+      <c r="C23" s="17"/>
+      <c r="D23" s="17"/>
+      <c r="E23" s="17"/>
+      <c r="F23" s="17"/>
+      <c r="G23" s="17"/>
+      <c r="H23" s="17"/>
+      <c r="I23" s="17"/>
+      <c r="J23" s="18"/>
     </row>
     <row r="24" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B24" s="23"/>
-      <c r="C24" s="24"/>
-      <c r="D24" s="24"/>
-      <c r="E24" s="24"/>
-      <c r="F24" s="24"/>
-      <c r="G24" s="24"/>
-      <c r="H24" s="24"/>
-      <c r="I24" s="24"/>
-      <c r="J24" s="25"/>
+      <c r="B24" s="16"/>
+      <c r="C24" s="17"/>
+      <c r="D24" s="17"/>
+      <c r="E24" s="17"/>
+      <c r="F24" s="17"/>
+      <c r="G24" s="17"/>
+      <c r="H24" s="17"/>
+      <c r="I24" s="17"/>
+      <c r="J24" s="18"/>
     </row>
     <row r="25" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="26"/>
-      <c r="C25" s="27"/>
-      <c r="D25" s="27"/>
-      <c r="E25" s="27"/>
-      <c r="F25" s="27"/>
-      <c r="G25" s="27"/>
-      <c r="H25" s="27"/>
-      <c r="I25" s="27"/>
-      <c r="J25" s="28"/>
+      <c r="B25" s="19"/>
+      <c r="C25" s="20"/>
+      <c r="D25" s="20"/>
+      <c r="E25" s="20"/>
+      <c r="F25" s="20"/>
+      <c r="G25" s="20"/>
+      <c r="H25" s="20"/>
+      <c r="I25" s="20"/>
+      <c r="J25" s="21"/>
     </row>
     <row r="26" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="16" t="s">
+      <c r="B26" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="C26" s="16"/>
-      <c r="D26" s="16"/>
-      <c r="E26" s="16"/>
+      <c r="C26" s="12"/>
+      <c r="D26" s="12"/>
+      <c r="E26" s="12"/>
     </row>
     <row r="27" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B27" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="C27" s="21"/>
-      <c r="D27" s="21"/>
-      <c r="E27" s="21"/>
-      <c r="F27" s="21"/>
-      <c r="G27" s="21"/>
-      <c r="H27" s="21"/>
-      <c r="I27" s="21"/>
-      <c r="J27" s="22"/>
+      <c r="B27" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C27" s="14"/>
+      <c r="D27" s="14"/>
+      <c r="E27" s="14"/>
+      <c r="F27" s="14"/>
+      <c r="G27" s="14"/>
+      <c r="H27" s="14"/>
+      <c r="I27" s="14"/>
+      <c r="J27" s="15"/>
     </row>
     <row r="28" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B28" s="23"/>
-      <c r="C28" s="24"/>
-      <c r="D28" s="24"/>
-      <c r="E28" s="24"/>
-      <c r="F28" s="24"/>
-      <c r="G28" s="24"/>
-      <c r="H28" s="24"/>
-      <c r="I28" s="24"/>
-      <c r="J28" s="25"/>
+      <c r="B28" s="16"/>
+      <c r="C28" s="17"/>
+      <c r="D28" s="17"/>
+      <c r="E28" s="17"/>
+      <c r="F28" s="17"/>
+      <c r="G28" s="17"/>
+      <c r="H28" s="17"/>
+      <c r="I28" s="17"/>
+      <c r="J28" s="18"/>
     </row>
     <row r="29" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B29" s="23"/>
-      <c r="C29" s="24"/>
-      <c r="D29" s="24"/>
-      <c r="E29" s="24"/>
-      <c r="F29" s="24"/>
-      <c r="G29" s="24"/>
-      <c r="H29" s="24"/>
-      <c r="I29" s="24"/>
-      <c r="J29" s="25"/>
+      <c r="B29" s="16"/>
+      <c r="C29" s="17"/>
+      <c r="D29" s="17"/>
+      <c r="E29" s="17"/>
+      <c r="F29" s="17"/>
+      <c r="G29" s="17"/>
+      <c r="H29" s="17"/>
+      <c r="I29" s="17"/>
+      <c r="J29" s="18"/>
     </row>
     <row r="30" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B30" s="23"/>
-      <c r="C30" s="24"/>
-      <c r="D30" s="24"/>
-      <c r="E30" s="24"/>
-      <c r="F30" s="24"/>
-      <c r="G30" s="24"/>
-      <c r="H30" s="24"/>
-      <c r="I30" s="24"/>
-      <c r="J30" s="25"/>
+      <c r="B30" s="16"/>
+      <c r="C30" s="17"/>
+      <c r="D30" s="17"/>
+      <c r="E30" s="17"/>
+      <c r="F30" s="17"/>
+      <c r="G30" s="17"/>
+      <c r="H30" s="17"/>
+      <c r="I30" s="17"/>
+      <c r="J30" s="18"/>
     </row>
     <row r="31" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B31" s="23"/>
-      <c r="C31" s="24"/>
-      <c r="D31" s="24"/>
-      <c r="E31" s="24"/>
-      <c r="F31" s="24"/>
-      <c r="G31" s="24"/>
-      <c r="H31" s="24"/>
-      <c r="I31" s="24"/>
-      <c r="J31" s="25"/>
+      <c r="B31" s="16"/>
+      <c r="C31" s="17"/>
+      <c r="D31" s="17"/>
+      <c r="E31" s="17"/>
+      <c r="F31" s="17"/>
+      <c r="G31" s="17"/>
+      <c r="H31" s="17"/>
+      <c r="I31" s="17"/>
+      <c r="J31" s="18"/>
     </row>
     <row r="32" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B32" s="23"/>
-      <c r="C32" s="24"/>
-      <c r="D32" s="24"/>
-      <c r="E32" s="24"/>
-      <c r="F32" s="24"/>
-      <c r="G32" s="24"/>
-      <c r="H32" s="24"/>
-      <c r="I32" s="24"/>
-      <c r="J32" s="25"/>
+      <c r="B32" s="16"/>
+      <c r="C32" s="17"/>
+      <c r="D32" s="17"/>
+      <c r="E32" s="17"/>
+      <c r="F32" s="17"/>
+      <c r="G32" s="17"/>
+      <c r="H32" s="17"/>
+      <c r="I32" s="17"/>
+      <c r="J32" s="18"/>
     </row>
     <row r="33" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B33" s="23"/>
-      <c r="C33" s="24"/>
-      <c r="D33" s="24"/>
-      <c r="E33" s="24"/>
-      <c r="F33" s="24"/>
-      <c r="G33" s="24"/>
-      <c r="H33" s="24"/>
-      <c r="I33" s="24"/>
-      <c r="J33" s="25"/>
+      <c r="B33" s="16"/>
+      <c r="C33" s="17"/>
+      <c r="D33" s="17"/>
+      <c r="E33" s="17"/>
+      <c r="F33" s="17"/>
+      <c r="G33" s="17"/>
+      <c r="H33" s="17"/>
+      <c r="I33" s="17"/>
+      <c r="J33" s="18"/>
     </row>
     <row r="34" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B34" s="23"/>
-      <c r="C34" s="24"/>
-      <c r="D34" s="24"/>
-      <c r="E34" s="24"/>
-      <c r="F34" s="24"/>
-      <c r="G34" s="24"/>
-      <c r="H34" s="24"/>
-      <c r="I34" s="24"/>
-      <c r="J34" s="25"/>
+      <c r="B34" s="16"/>
+      <c r="C34" s="17"/>
+      <c r="D34" s="17"/>
+      <c r="E34" s="17"/>
+      <c r="F34" s="17"/>
+      <c r="G34" s="17"/>
+      <c r="H34" s="17"/>
+      <c r="I34" s="17"/>
+      <c r="J34" s="18"/>
     </row>
     <row r="35" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B35" s="23"/>
-      <c r="C35" s="24"/>
-      <c r="D35" s="24"/>
-      <c r="E35" s="24"/>
-      <c r="F35" s="24"/>
-      <c r="G35" s="24"/>
-      <c r="H35" s="24"/>
-      <c r="I35" s="24"/>
-      <c r="J35" s="25"/>
+      <c r="B35" s="16"/>
+      <c r="C35" s="17"/>
+      <c r="D35" s="17"/>
+      <c r="E35" s="17"/>
+      <c r="F35" s="17"/>
+      <c r="G35" s="17"/>
+      <c r="H35" s="17"/>
+      <c r="I35" s="17"/>
+      <c r="J35" s="18"/>
     </row>
     <row r="36" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B36" s="23"/>
-      <c r="C36" s="24"/>
-      <c r="D36" s="24"/>
-      <c r="E36" s="24"/>
-      <c r="F36" s="24"/>
-      <c r="G36" s="24"/>
-      <c r="H36" s="24"/>
-      <c r="I36" s="24"/>
-      <c r="J36" s="25"/>
+      <c r="B36" s="16"/>
+      <c r="C36" s="17"/>
+      <c r="D36" s="17"/>
+      <c r="E36" s="17"/>
+      <c r="F36" s="17"/>
+      <c r="G36" s="17"/>
+      <c r="H36" s="17"/>
+      <c r="I36" s="17"/>
+      <c r="J36" s="18"/>
     </row>
     <row r="37" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B37" s="23"/>
-      <c r="C37" s="24"/>
-      <c r="D37" s="24"/>
-      <c r="E37" s="24"/>
-      <c r="F37" s="24"/>
-      <c r="G37" s="24"/>
-      <c r="H37" s="24"/>
-      <c r="I37" s="24"/>
-      <c r="J37" s="25"/>
+      <c r="B37" s="16"/>
+      <c r="C37" s="17"/>
+      <c r="D37" s="17"/>
+      <c r="E37" s="17"/>
+      <c r="F37" s="17"/>
+      <c r="G37" s="17"/>
+      <c r="H37" s="17"/>
+      <c r="I37" s="17"/>
+      <c r="J37" s="18"/>
     </row>
     <row r="38" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="26"/>
-      <c r="C38" s="27"/>
-      <c r="D38" s="27"/>
-      <c r="E38" s="27"/>
-      <c r="F38" s="27"/>
-      <c r="G38" s="27"/>
-      <c r="H38" s="27"/>
-      <c r="I38" s="27"/>
-      <c r="J38" s="28"/>
+      <c r="B38" s="19"/>
+      <c r="C38" s="20"/>
+      <c r="D38" s="20"/>
+      <c r="E38" s="20"/>
+      <c r="F38" s="20"/>
+      <c r="G38" s="20"/>
+      <c r="H38" s="20"/>
+      <c r="I38" s="20"/>
+      <c r="J38" s="21"/>
     </row>
     <row r="39" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B39" s="16" t="s">
+      <c r="B39" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="C39" s="16"/>
-      <c r="D39" s="16"/>
-      <c r="E39" s="16"/>
+      <c r="C39" s="12"/>
+      <c r="D39" s="12"/>
+      <c r="E39" s="12"/>
     </row>
     <row r="40" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B40" s="20" t="s">
+      <c r="B40" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="C40" s="21"/>
-      <c r="D40" s="21"/>
-      <c r="E40" s="21"/>
-      <c r="F40" s="21"/>
-      <c r="G40" s="21"/>
-      <c r="H40" s="21"/>
-      <c r="I40" s="21"/>
-      <c r="J40" s="22"/>
+      <c r="C40" s="14"/>
+      <c r="D40" s="14"/>
+      <c r="E40" s="14"/>
+      <c r="F40" s="14"/>
+      <c r="G40" s="14"/>
+      <c r="H40" s="14"/>
+      <c r="I40" s="14"/>
+      <c r="J40" s="15"/>
     </row>
     <row r="41" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B41" s="23"/>
-      <c r="C41" s="24"/>
-      <c r="D41" s="24"/>
-      <c r="E41" s="24"/>
-      <c r="F41" s="24"/>
-      <c r="G41" s="24"/>
-      <c r="H41" s="24"/>
-      <c r="I41" s="24"/>
-      <c r="J41" s="25"/>
+      <c r="B41" s="16"/>
+      <c r="C41" s="17"/>
+      <c r="D41" s="17"/>
+      <c r="E41" s="17"/>
+      <c r="F41" s="17"/>
+      <c r="G41" s="17"/>
+      <c r="H41" s="17"/>
+      <c r="I41" s="17"/>
+      <c r="J41" s="18"/>
     </row>
     <row r="42" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B42" s="23"/>
-      <c r="C42" s="24"/>
-      <c r="D42" s="24"/>
-      <c r="E42" s="24"/>
-      <c r="F42" s="24"/>
-      <c r="G42" s="24"/>
-      <c r="H42" s="24"/>
-      <c r="I42" s="24"/>
-      <c r="J42" s="25"/>
+      <c r="B42" s="16"/>
+      <c r="C42" s="17"/>
+      <c r="D42" s="17"/>
+      <c r="E42" s="17"/>
+      <c r="F42" s="17"/>
+      <c r="G42" s="17"/>
+      <c r="H42" s="17"/>
+      <c r="I42" s="17"/>
+      <c r="J42" s="18"/>
     </row>
     <row r="43" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B43" s="23"/>
-      <c r="C43" s="24"/>
-      <c r="D43" s="24"/>
-      <c r="E43" s="24"/>
-      <c r="F43" s="24"/>
-      <c r="G43" s="24"/>
-      <c r="H43" s="24"/>
-      <c r="I43" s="24"/>
-      <c r="J43" s="25"/>
+      <c r="B43" s="16"/>
+      <c r="C43" s="17"/>
+      <c r="D43" s="17"/>
+      <c r="E43" s="17"/>
+      <c r="F43" s="17"/>
+      <c r="G43" s="17"/>
+      <c r="H43" s="17"/>
+      <c r="I43" s="17"/>
+      <c r="J43" s="18"/>
     </row>
     <row r="44" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B44" s="23"/>
-      <c r="C44" s="24"/>
-      <c r="D44" s="24"/>
-      <c r="E44" s="24"/>
-      <c r="F44" s="24"/>
-      <c r="G44" s="24"/>
-      <c r="H44" s="24"/>
-      <c r="I44" s="24"/>
-      <c r="J44" s="25"/>
+      <c r="B44" s="16"/>
+      <c r="C44" s="17"/>
+      <c r="D44" s="17"/>
+      <c r="E44" s="17"/>
+      <c r="F44" s="17"/>
+      <c r="G44" s="17"/>
+      <c r="H44" s="17"/>
+      <c r="I44" s="17"/>
+      <c r="J44" s="18"/>
     </row>
     <row r="45" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B45" s="23"/>
-      <c r="C45" s="24"/>
-      <c r="D45" s="24"/>
-      <c r="E45" s="24"/>
-      <c r="F45" s="24"/>
-      <c r="G45" s="24"/>
-      <c r="H45" s="24"/>
-      <c r="I45" s="24"/>
-      <c r="J45" s="25"/>
+      <c r="B45" s="16"/>
+      <c r="C45" s="17"/>
+      <c r="D45" s="17"/>
+      <c r="E45" s="17"/>
+      <c r="F45" s="17"/>
+      <c r="G45" s="17"/>
+      <c r="H45" s="17"/>
+      <c r="I45" s="17"/>
+      <c r="J45" s="18"/>
     </row>
     <row r="46" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B46" s="23"/>
-      <c r="C46" s="24"/>
-      <c r="D46" s="24"/>
-      <c r="E46" s="24"/>
-      <c r="F46" s="24"/>
-      <c r="G46" s="24"/>
-      <c r="H46" s="24"/>
-      <c r="I46" s="24"/>
-      <c r="J46" s="25"/>
+      <c r="B46" s="16"/>
+      <c r="C46" s="17"/>
+      <c r="D46" s="17"/>
+      <c r="E46" s="17"/>
+      <c r="F46" s="17"/>
+      <c r="G46" s="17"/>
+      <c r="H46" s="17"/>
+      <c r="I46" s="17"/>
+      <c r="J46" s="18"/>
     </row>
     <row r="47" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B47" s="23"/>
-      <c r="C47" s="24"/>
-      <c r="D47" s="24"/>
-      <c r="E47" s="24"/>
-      <c r="F47" s="24"/>
-      <c r="G47" s="24"/>
-      <c r="H47" s="24"/>
-      <c r="I47" s="24"/>
-      <c r="J47" s="25"/>
+      <c r="B47" s="16"/>
+      <c r="C47" s="17"/>
+      <c r="D47" s="17"/>
+      <c r="E47" s="17"/>
+      <c r="F47" s="17"/>
+      <c r="G47" s="17"/>
+      <c r="H47" s="17"/>
+      <c r="I47" s="17"/>
+      <c r="J47" s="18"/>
     </row>
     <row r="48" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B48" s="23"/>
-      <c r="C48" s="24"/>
-      <c r="D48" s="24"/>
-      <c r="E48" s="24"/>
-      <c r="F48" s="24"/>
-      <c r="G48" s="24"/>
-      <c r="H48" s="24"/>
-      <c r="I48" s="24"/>
-      <c r="J48" s="25"/>
+      <c r="B48" s="16"/>
+      <c r="C48" s="17"/>
+      <c r="D48" s="17"/>
+      <c r="E48" s="17"/>
+      <c r="F48" s="17"/>
+      <c r="G48" s="17"/>
+      <c r="H48" s="17"/>
+      <c r="I48" s="17"/>
+      <c r="J48" s="18"/>
     </row>
     <row r="49" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B49" s="23"/>
-      <c r="C49" s="24"/>
-      <c r="D49" s="24"/>
-      <c r="E49" s="24"/>
-      <c r="F49" s="24"/>
-      <c r="G49" s="24"/>
-      <c r="H49" s="24"/>
-      <c r="I49" s="24"/>
-      <c r="J49" s="25"/>
+      <c r="B49" s="16"/>
+      <c r="C49" s="17"/>
+      <c r="D49" s="17"/>
+      <c r="E49" s="17"/>
+      <c r="F49" s="17"/>
+      <c r="G49" s="17"/>
+      <c r="H49" s="17"/>
+      <c r="I49" s="17"/>
+      <c r="J49" s="18"/>
     </row>
     <row r="50" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B50" s="23"/>
-      <c r="C50" s="24"/>
-      <c r="D50" s="24"/>
-      <c r="E50" s="24"/>
-      <c r="F50" s="24"/>
-      <c r="G50" s="24"/>
-      <c r="H50" s="24"/>
-      <c r="I50" s="24"/>
-      <c r="J50" s="25"/>
+      <c r="B50" s="16"/>
+      <c r="C50" s="17"/>
+      <c r="D50" s="17"/>
+      <c r="E50" s="17"/>
+      <c r="F50" s="17"/>
+      <c r="G50" s="17"/>
+      <c r="H50" s="17"/>
+      <c r="I50" s="17"/>
+      <c r="J50" s="18"/>
     </row>
     <row r="51" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B51" s="26"/>
-      <c r="C51" s="27"/>
-      <c r="D51" s="27"/>
-      <c r="E51" s="27"/>
-      <c r="F51" s="27"/>
-      <c r="G51" s="27"/>
-      <c r="H51" s="27"/>
-      <c r="I51" s="27"/>
-      <c r="J51" s="28"/>
+      <c r="B51" s="19"/>
+      <c r="C51" s="20"/>
+      <c r="D51" s="20"/>
+      <c r="E51" s="20"/>
+      <c r="F51" s="20"/>
+      <c r="G51" s="20"/>
+      <c r="H51" s="20"/>
+      <c r="I51" s="20"/>
+      <c r="J51" s="21"/>
     </row>
   </sheetData>
-  <mergeCells count="16">
-    <mergeCell ref="B13:E13"/>
-    <mergeCell ref="B14:J25"/>
-    <mergeCell ref="B27:J38"/>
-    <mergeCell ref="B40:J51"/>
-    <mergeCell ref="B26:E26"/>
-    <mergeCell ref="B39:E39"/>
+  <mergeCells count="17">
+    <mergeCell ref="D4:J8"/>
+    <mergeCell ref="I2:J3"/>
+    <mergeCell ref="D2:H3"/>
     <mergeCell ref="B12:E12"/>
     <mergeCell ref="G12:J12"/>
     <mergeCell ref="B11:E11"/>
@@ -1476,11 +1328,105 @@
     <mergeCell ref="G11:J11"/>
     <mergeCell ref="B10:E10"/>
     <mergeCell ref="G10:J10"/>
-    <mergeCell ref="D2:J3"/>
-    <mergeCell ref="D4:J8"/>
+    <mergeCell ref="B13:E13"/>
+    <mergeCell ref="B14:J25"/>
+    <mergeCell ref="B27:J38"/>
+    <mergeCell ref="B40:J51"/>
+    <mergeCell ref="B26:E26"/>
+    <mergeCell ref="B39:E39"/>
   </mergeCells>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
   <pageSetup scale="96" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28" customWidth="1"/>
+    <col min="4" max="4" width="31.85546875" customWidth="1"/>
+    <col min="5" max="5" width="14.140625" customWidth="1"/>
+    <col min="6" max="7" width="80.5703125" customWidth="1"/>
+    <col min="8" max="8" width="81" customWidth="1"/>
+    <col min="9" max="10" width="81.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
+        <v>44292.611504629633</v>
+      </c>
+      <c r="B2" s="2">
+        <v>44292</v>
+      </c>
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>